--- a/data/output/FV2304_FV2210/UTILMD/11077.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11077.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="298">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="298">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1018,6 +1018,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U184" totalsRowShown="0">
+  <autoFilter ref="A1:U184"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1307,7 +1337,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9674,5 +9707,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11077.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11077.xlsx
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4160,7 +4160,7 @@
         <v>276</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4364,7 +4364,7 @@
         <v>277</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4518,7 +4518,7 @@
         <v>278</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4670,7 +4670,7 @@
         <v>279</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5050,7 +5050,7 @@
         <v>281</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5246,7 +5246,7 @@
         <v>277</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5386,7 +5386,7 @@
         <v>284</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5538,7 +5538,7 @@
         <v>285</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -5972,7 +5972,7 @@
         <v>287</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6160,7 +6160,7 @@
         <v>288</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6906,7 +6906,7 @@
         <v>289</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7202,7 +7202,7 @@
         <v>288</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7502,7 +7502,7 @@
         <v>290</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7642,7 +7642,7 @@
         <v>291</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7794,7 +7794,7 @@
         <v>292</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8040,7 +8040,7 @@
         <v>294</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8228,7 +8228,7 @@
         <v>288</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8516,7 +8516,7 @@
         <v>295</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8762,7 +8762,7 @@
         <v>296</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9330,7 +9330,7 @@
         <v>297</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9468,7 +9468,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9616,7 +9616,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10178,7 +10178,7 @@
         <v>298</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10690,7 +10690,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N182" s="2"/>
